--- a/project-Layers.xlsx
+++ b/project-Layers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/448dd01b02ce4326/Documents/Assignment LTI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTI\airlineproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{D8B3EC34-9805-4B07-AA2C-0BE83294B1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F48349DD-D6EC-474C-873E-698C6EFA1BCE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002A3366-E3C7-40B2-A81A-8F2C112B9CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5FBF6E4-5BA9-4561-B7A4-95A2FE891A3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5FBF6E4-5BA9-4561-B7A4-95A2FE891A3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>LAYER</t>
   </si>
@@ -501,18 +501,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24514790-6A05-4F28-BBED-9B11A0F7A35C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.109375" customWidth="1"/>
+    <col min="1" max="2" width="20.08984375" customWidth="1"/>
     <col min="3" max="3" width="69" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -562,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -573,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -584,13 +584,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -604,7 +604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -615,15 +615,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
